--- a/Datascraping/output_excel_files_new/Indian Institute of Technology Indore_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Indian Institute of Technology Indore_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,32 +520,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UG [4 Years Program(s)]</t>
+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -563,22 +563,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>PG [3 Year Program(s)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,85 +606,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PG-Integrated</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
           <t>(All programs of all years)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>No. of Male Students</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>No. of Female Students</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Total Students</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Within State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Outside State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Outside Country@@ -692,7 +649,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Economically Backward@@ -700,7 +657,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Socially Challenged@@ -709,7 +666,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -720,7 +677,7 @@
 Government</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -730,7 +687,7 @@
 Funds</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -740,7 +697,7 @@
 Bodies</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>No. of students who are not@@ -750,36 +707,104 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UG [5 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UG [4 Years+          <t>PG [3 Year Program(s)]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -789,22 +814,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -814,197 +839,48 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PG [2 Year-Program(s)]</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>383</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PG-Integrated</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>No. of students-admitted through-Lateral entry</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>No. of students-graduating in-minimum stipulated-time</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1012,13 +888,112 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>500000(FIVE LAKH+ONLY)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>530000(FIVE LAKH+THIRTY THOUSAND+ONLY)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1026,55 +1001,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>800000(EIGHT LAKH+ONLY)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1650000(Sixteen Lakh-Fifty Thousand)</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1082,153 +1049,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1400000(Fourteen-Lakh)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1850000(Eighteen-Lakh Fifty Thousand)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>No. of students graduating in minimum stipulated time</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1236,11 +1091,106 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0(Zero)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1500000(FIFTEEN+LAKH ONLY)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1252,42 +1202,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1100000(Eleven Lakh)</t>
+          <t>1800000(EIGHTEEN+LAKH ONLY)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1299,44 +1250,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1000000(Ten Lakh)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1344,46 +1267,18 @@
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1000000(Ten Lakh)</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+          <t>Total Students</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1393,10 +1288,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1410,10 +1309,14 @@
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Part Time</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Total Students</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1431,14 +1334,10 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>521</t>
-        </is>
-      </c>
+          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -1452,18 +1351,22 @@
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1477,12 +1380,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1494,20 +1405,20 @@
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Part Time</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1523,22 +1434,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1552,24 +1463,20 @@
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1585,24 +1492,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1614,20 +1509,24 @@
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>3900000 (Thirty nine lacs)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>3400000 (Thirty four lacs)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>3000000 (Thirty lacs)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1643,12 +1542,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+          <t>New Equipment for Laboratories</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9500000 (Ninety five lacs )</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13000000 (One crore Thirty lacs)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9000000 (Ninety lacs)</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1662,25 +1573,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Library ( Books, Journals and e-Resources only)</t>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>33385164 (Three Crore Thirty Three Lakh Eighty Five-Thousand One Hundred Sixty Four)</t>
+          <t>2000000 (Twenty lacs)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>36437471 (Three Crore Sixty Four Lakh Thirty Seven-Thousand Four Hundred Seventy One)</t>
+          <t>3500000 (Thirty five lacs)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>41577549 (Four Crore Fifteen Lakh Seventy Seven Thousand-Five Hundred Forty Nine)</t>
+          <t>1500000 (Fifteen lacs)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1696,25 +1605,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>New Equipment and software for Laboratories</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>112076792 (Eleven Crore Twenty Lakh Seventy Six Thousand-Seven Hundred Ninety Two)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>148993805 (Fourteen Crore Eighty Nine Lakh Ninety Three-Thousand Eight Hundred Five)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>122958828 (Twelve Crore Twenty Nine Lakh Fifty Eight-Thousand Eight Hundred Twenty Eight)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1728,24 +1634,20 @@
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Engineering Workshops</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1761,29 +1663,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (For setting up-classrooms, seminar hall, conference hall , library, Lab, Engg-workshops excluding expenditure on Land and Building)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>54747127 (Five Crore Forty Seven Lakh Forty Seven-Thousand One Hundred Twenty Seven)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>108118672 (Ten Crore Eighty One Lakh Eighteen Thousand-Six Hundred Seventy Two)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>55437674 (Five Crore Fifty Four Lakh Thirty Seven Thousand-Six Hundred Seventy Four)</t>
-        </is>
-      </c>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1797,22 +1682,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>180000000 (Eighteen crores)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>160000000 (Sixteen crores)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>148000000 (Fourteen crores eighty lacs)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1826,20 +1711,26 @@
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>3000000 (Thirty lacs)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>2500000 (Twenty five  lacs)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>3000000 (Thirty lacs)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1855,12 +1746,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+          <t>Seminars/Conferences/Workshops</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>420000 (Four lacs twenty thousands)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>350000 (Three lacs fifty thousands)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>300000 (Three lacs)</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1874,25 +1777,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>558261242 (Fifty Five Crore Eighty Two Lakh Sixty One-Thousand Two Hundred Forty Two)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>484268298 (Forty Eight Crore Forty Two Lakh Sixty Eight-Thousand Two Hundred Ninety Eight)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>452195658 (Forty Five Crore Twenty One Lakh Ninety Five-Thousand Six Hundred Fifty Eight)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1908,27 +1808,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>439197669 (Forty Three Crore Ninety One Lakh Ninety Seven-Thousand Six Hundred Sixty Nine)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>419015875 (Forty One Crore Ninety Lakh Fifteen Thousand-Eight Hundred Seventy Five)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>483857068 (Forty Eight Crore Thirty Eight Lakh Fifty Seven-Thousand Sixty Eight)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1944,25 +1839,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8881716 (Eighty Eight Lakh Eighty One Thousand Seven-Hundred Sixteen)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>28332484 (Two Crore Eighty Three Lakh Thirty Two Thousand-Four Hundred Eighty Four)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>25566425 (Two Crore Fifty Five Lakh Sixty Six Thousand Four-Hundred Twenty Five)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1978,22 +1870,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2009,22 +1901,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>ELEVEN THOUSAND</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>SEVEN THOUSAND</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>TEN THOUSAND</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2040,24 +1932,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>1. Average OPD attendance in the calendar year 2021.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2071,24 +1955,16 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>220649268</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>256326631</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>262000699</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2102,26 +1978,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Twenty Two Crore Six Lakh Forty Nine Thousand Two-Hundred Sixty Eight</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Twenty Five Crore Sixty Three Lakh Twenty Six Thousand Six-Hundred Thirty One</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Twenty Six Crore Twenty Lakh Six Hundred Ninety Nine</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -2135,24 +2002,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -2166,24 +2025,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -2194,194 +2045,6 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Total no. of Client Organizations</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>34639900</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>15656968</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>9055923</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Amount Received in Words</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Three Crore Forty Six Lakh Thirty Nine Thousand Nine-Hundred</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>One Crore Fifty Six Lakh Fifty Six Thousand Nine Hundred-Sixty Eight</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Ninety Lakh Fifty Five Thousand Nine Hundred Twenty Three</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Number of faculty members entered</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
